--- a/data/calidad.xlsx
+++ b/data/calidad.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="28">
   <si>
     <t>ZODE</t>
   </si>
@@ -182,12 +182,16 @@
   <si>
     <t>E.S.E. HOSPITAL LOCAL DE SAN JUAN NEPOMUCENO</t>
   </si>
+  <si>
+    <t>VIRGILIO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -616,13 +620,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="18.140625" customWidth="1"/>
-    <col min="3" max="3" width="19.42578125" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.5703125" customWidth="1"/>
-    <col min="6" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="29.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.7109375" customWidth="1"/>
+    <col min="2" max="2" customWidth="true" width="18.140625" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="19.42578125" collapsed="false"/>
+    <col min="4" max="4" customWidth="true" width="42.42578125" collapsed="false"/>
+    <col min="5" max="5" customWidth="true" width="18.5703125" collapsed="false"/>
+    <col min="6" max="11" customWidth="true" width="14.5703125" collapsed="false"/>
+    <col min="12" max="12" customWidth="true" width="29.85546875" collapsed="false"/>
+    <col min="13" max="13" customWidth="true" width="16.7109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:13" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -630,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11"/>
